--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="resumen" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD100"/>
+  <dimension ref="A1:AE147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,134 +435,139 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Circuito</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Circuito</t>
+          <t>Tablero</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tablero</t>
+          <t>Lugar</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Lugar Especifico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tecnologia</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Numero</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tamano</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sobreiluminacion</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Adecuaciones</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Existencia</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Marca</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nominal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Consumo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>T_Compresor</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>T_Refrigerador</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Problema</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Problemas</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>T Compresor</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>T Refrigerador</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Problema Refri</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Problema Compresor</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Aparatos</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Tipo de bomba</t>
+          <t>Equipo</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Sistema de la bomba</t>
+          <t>Volumen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>No. de Tinacos</t>
+          <t>Temp Refri</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Altura del tinaco</t>
+          <t>Temp Conge</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Presion de agua</t>
+          <t>Pot Compresor</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Hay jarros de aire</t>
+          <t>Temp Compresor</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Diametro tuberia</t>
+          <t>Prob Comp</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Presion planta baja</t>
+          <t>Prob Descr</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Numero de luminarias</t>
+          <t>Empaques</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Tecnología luminaria</t>
+          <t>Termostato</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Tamaño luminaria</t>
+          <t>Ventilacion</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Entrada luminaria</t>
+          <t>Cierre</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -577,24 +582,25 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Numero</t>
+          <t>Factor de potencia</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Garage</t>
-        </is>
-      </c>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -622,44 +628,51 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>lg</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sala</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>180w</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>100w</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>prendido_constante_compresor compresor_de_alta_potencia</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>70</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -676,25 +689,38 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0w</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>800w</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Mabe</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -710,25 +736,38 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.5w</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1000w</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -744,12 +783,19 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -778,26 +824,47 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.5w</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1200W</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Panasonic NN-SD985S</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Microondas Panasonic</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -812,16 +879,19 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.3w</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -829,9 +899,21 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1800w</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Kitchen aid</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Horno Kitchen Aid</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -846,12 +928,19 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -880,11 +969,10 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -896,17 +984,43 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>lg</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>1568.6784</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-19</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>238w</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>80</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>suciedad_en_intercambiadores_d ruido_de_desgaste</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hace ruido. </t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -914,10 +1028,13 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -948,12 +1065,19 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -982,26 +1106,43 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12.8w</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>12.8w</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Sistema de Seguridad marca ADT</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1016,24 +1157,19 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Garage</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.019a</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1041,9 +1177,21 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.019a</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Alhua</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Pantalla Timbre Interfon</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1058,30 +1206,21 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Mabe</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1800w</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.4w</t>
+          <t>El resto de la fuga</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1091,13 +1230,21 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>El resto de la fuga</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Microondas</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+          <t>No se pudo medir</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Timbre</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1112,28 +1259,23 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Mabe</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1142,11 +1284,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Horno</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1162,31 +1300,50 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Garage</t>
+          <t>Escaleras</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>.1a</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -1204,41 +1361,48 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>rec_mara_ni_a_s</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No se registró</t>
+          <t>ba_o</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5w</t>
+          <t>led</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5w</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>0.411a</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Regulador p/bocinas sillón</t>
-        </is>
-      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1254,45 +1418,52 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>rec_mara_ni_a_s</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5w</t>
+          <t>led</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5w</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>0.027</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Módem</t>
-        </is>
-      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -1308,41 +1479,52 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>rec_mara_ni_a_s</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Doterra</t>
+          <t>espacio_principal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1w</t>
+          <t>led</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1w</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>0.201a</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Aromatizante</t>
-        </is>
-      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1358,31 +1540,58 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Garage</t>
+          <t>rec_mara_ni_a_s</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>fluorescente</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.3a</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tubos fluorescentes</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>cambio_de_balastros</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1400,41 +1609,52 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>rec_mara_ni_a_s</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>850w</t>
+          <t>led</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0w</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>.027a</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Olla de lenta cocción</t>
-        </is>
-      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -1450,28 +1670,23 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Wabi Baby</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>80w</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0w</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1480,11 +1695,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Sanitizador de mamilas</t>
-        </is>
-      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -1500,30 +1711,43 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0w</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>.086a</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>No se aabe</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Extractor baño niñas</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -1538,24 +1762,19 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>5a</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Bodega</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.016a</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1563,9 +1782,21 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.016a</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Apple repetidor blanco</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -1580,28 +1811,19 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>14a</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0w</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1610,11 +1832,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>lavadora</t>
-        </is>
-      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -1630,28 +1848,23 @@
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>800w</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0w</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1660,11 +1873,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>secadora</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -1680,27 +1889,62 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>5a</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>rec_mara_ni_o_s</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ba_o</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>incandescente</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.228a</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bombilla ver foto</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -1718,31 +1962,58 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1b</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bodega</t>
+          <t>rec_mara_ni_o_s</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>hal_geno</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.356a</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Dicroica de dos tipos mr16 y otro más grande</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -1760,43 +2031,58 @@
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>rec_mara_ni_o_s</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>hal_geno</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>450w</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>1.1a</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Dicroico mr16</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>gu_5_3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Bomba</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>presurizadora_hidroneum_tico</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>bomba_hidroneumatica___nivel_techo_alto</t>
-        </is>
-      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -1810,10 +2096,13 @@
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -1828,21 +2117,11 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Tinaco</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>6</v>
-      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -1854,12 +2133,19 @@
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1872,31 +2158,15 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Tuberia</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>el_agua_sale_muy_bien__no_se_v</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>1.5in</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>el_agua_sale_bien__pero_probab</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -1904,26 +2174,17 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Mirage</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>950w</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5.2 w</t>
+          <t>0w</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1932,14 +2193,24 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1500w</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Unidad condensadora</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
+          <t>No se registró</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Secadora de cabello</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -1954,20 +2225,19 @@
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1b</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1975,9 +2245,21 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Varios</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Cargadores diversos en baño rec.ppal y recamará niño.</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
@@ -1992,21 +2274,16 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>5c</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Bodega</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -2034,28 +2311,23 @@
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Lasko 5591m</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1500w</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0w</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2064,11 +2336,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>calentador_port_til__ambiente</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2084,23 +2352,14 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>LG 20MT45D</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1.6A</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t>0w</t>
@@ -2112,14 +2371,24 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0w</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>TV LG 20'' y decodificador master</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
+          <t>No hay equipos</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Contacto a la izquierda de lavabo en cocina.</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -2134,16 +2403,15 @@
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>5c</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -2172,21 +2440,20 @@
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5a</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Bodega</t>
-        </is>
-      </c>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -2214,18 +2481,17 @@
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>30w</t>
+          <t>0w</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2234,14 +2500,24 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>50w</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
+          <t>Se desconoce</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Laptop o tablet en recámara de las niñas0</t>
+        </is>
+      </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -2249,41 +2525,26 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Lampara led con difusor</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>Luminaria prefabricada</t>
-        </is>
-      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>30w</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2292,11 +2553,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2305,33 +2562,26 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>fluorescente</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>Espiral</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>e26_27</t>
-        </is>
-      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Der.F1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -2344,11 +2594,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2364,30 +2610,43 @@
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>5a</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>El mismo</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>El mismo</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>El mismo</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>El mismo que el c.2 Tab.Grande</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -2402,21 +2661,16 @@
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Garage</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Der.F1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -2444,24 +2698,23 @@
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Der. F2 1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>9w</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2483,33 +2736,20 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>no_haydatos</t>
-        </is>
-      </c>
-      <c r="AC45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>otro</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1w</t>
+          <t>El mismo</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2518,10 +2758,24 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>El mismo</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>El mismo</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>El mismo que el c.5 Tab Grande</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
@@ -2535,13 +2789,14 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Der. F2 1</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
@@ -2572,20 +2827,23 @@
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1a</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pequeño</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1w</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2609,26 +2867,51 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tienda</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>tira_led</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>56w</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>con_escalera_larga__1_5_m</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -2646,31 +2929,50 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Koblenz</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tienda</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5w</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>7w</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -2687,34 +2989,51 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>otro</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Tienda</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6w</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>65w</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>9</v>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>otro_de_dif_cil_acceso</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -2731,31 +3050,20 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1a</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>netgear</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1w</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2779,15 +3087,20 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1b y 2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pequeño</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -2816,23 +3129,50 @@
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Zona exterior tienda.</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No se midieron</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -2850,10 +3190,13 @@
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1b y 2</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
@@ -2884,12 +3227,19 @@
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>11,13</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -2918,30 +3268,43 @@
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>playstation</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2.56kw</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Ariston HFCA2N</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Horno Ariston 2.56kw</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -2955,13 +3318,14 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>11,13</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
@@ -2992,20 +3356,23 @@
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>12w</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3014,11 +3381,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3027,54 +3390,71 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>Prefabricada</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>cocina</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>espacio_principal</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>fluorescente</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>21w</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>230w</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Tubo ver foto</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>cambio_de_balastros</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3083,54 +3463,67 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>De riel mr16</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>gu_5_3</t>
-        </is>
-      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cocina</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>hal_geno</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>60w</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+          <t>50w</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Dicroico empotrable</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3139,62 +3532,59 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>tira_led</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>Tira led</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Dyson TP03</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>cocina</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>58w</t>
+          <t>led</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0w</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>10w</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>otro_de_dif_cil_acceso</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Purificador de aire dyson</t>
-        </is>
-      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3210,31 +3600,50 @@
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>5b</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bodega</t>
+          <t>otro</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>incandescente</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>70w</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Ver foto</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -3252,20 +3661,19 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>12w</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3274,11 +3682,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3287,33 +3691,26 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>Prefabricada con difusor</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>Prefabricada</t>
-        </is>
-      </c>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5 iluminación continua</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
@@ -3326,11 +3723,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3346,29 +3739,60 @@
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vestíbulo y baño</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>hal_geno</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.545a</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Halógeno dicroico empotrable</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3384,16 +3808,15 @@
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>5b</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>5 iluminación continua</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
@@ -3422,21 +3845,20 @@
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3a</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Bodega</t>
-        </is>
-      </c>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -3464,31 +3886,58 @@
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Comedor sala de estar</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0w no se usa</t>
+          <t>hal_geno</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3w</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>.95a</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Dicroicas halógenas empotrables</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -3503,34 +3952,53 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>no_haydatos</t>
-        </is>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Comedor sala de estar</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>.15a</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -3548,23 +4016,58 @@
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Comedor sala de estar</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>hal_geno</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.077</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Dicroico halógeno empotrable</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -3582,23 +4085,50 @@
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>comedor</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>hal_geno</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>.905</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Halógeno dicroico empotrado</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -3616,23 +4146,50 @@
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>comedor</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>30w</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -3650,10 +4207,13 @@
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
@@ -3684,12 +4244,19 @@
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
@@ -3718,22 +4285,17 @@
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>otro</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5.5w</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -3742,10 +4304,24 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>.863a</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Bosch 9055b</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Lavavajilla</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -3759,13 +4335,14 @@
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
@@ -3796,14 +4373,17 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3a</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3834,25 +4414,36 @@
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>5.2</v>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>65w</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>otra</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -3865,28 +4456,41 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>no_haydatos</t>
+        </is>
+      </c>
+      <c r="AC79" t="n">
+        <v>30</v>
+      </c>
       <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
+      <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>5</v>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Master</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -3902,11 +4506,10 @@
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
+      <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
@@ -3918,10 +4521,16 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -3936,10 +4545,13 @@
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
@@ -3969,23 +4581,24 @@
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>10w y 20w</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3994,11 +4607,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -4007,48 +4616,43 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>Todo es LED</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>Son luces del 2o nivel. Recámaras de niños. Todo es led. Englobar como luces led.</t>
-        </is>
-      </c>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>6a</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Luminaria</t>
+          <t>Maytag 7mmgp0075ww0</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
@@ -4066,10 +4670,13 @@
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
@@ -4084,11 +4691,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -4104,21 +4707,20 @@
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5b</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Garage</t>
-        </is>
-      </c>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
@@ -4146,18 +4748,17 @@
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>50w</t>
+          <t>2.5w</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -4166,11 +4767,17 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Luminaria</t>
+          <t>Whirlpool 17102</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
@@ -4181,31 +4788,20 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>Led Dicroica posible mr16</t>
-        </is>
-      </c>
-      <c r="AA87" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
@@ -4220,11 +4816,7 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -4240,12 +4832,19 @@
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
@@ -4258,11 +4857,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
@@ -4278,16 +4873,11 @@
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>5b</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
@@ -4298,9 +4888,19 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>1352w</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Black and Decker</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
@@ -4316,21 +4916,16 @@
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Garage</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
@@ -4358,20 +4953,23 @@
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>40w</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -4380,11 +4978,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -4393,39 +4987,24 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>Aplanado</t>
-        </is>
-      </c>
-      <c r="AA92" t="inlineStr">
-        <is>
-          <t>e26_27</t>
-        </is>
-      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -4434,14 +5013,24 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1400w</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr"/>
+          <t>Nespreso</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Cafetera y teléfono inalámbrico</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
@@ -4449,35 +5038,24 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>A ras de piso para iluminar columnas</t>
-        </is>
-      </c>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>25w</t>
+          <t>1w</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -4487,13 +5065,21 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>1w</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Luminaria</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr"/>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Teléfono inalámbrico</t>
+        </is>
+      </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -4501,49 +5087,26 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>Prefabricada con difusor</t>
-        </is>
-      </c>
-      <c r="AA94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>No se registró</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>8w</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>8w</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -4552,11 +5115,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Interfon</t>
-        </is>
-      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -4572,28 +5131,23 @@
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>750w según</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>0w</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -4602,11 +5156,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Equipo de 750w no identificado pero no es cafetera ya que no usan. No usan otra cosa más en cocina. Nada con el patrón de uso reportado. Se le consultó al cliente, familia y servicio y nada coincide.</t>
-        </is>
-      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -4622,27 +5172,58 @@
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jard_n</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>fluorescente</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>.22a</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Lámpara de jardín con difusor</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
@@ -4660,31 +5241,58 @@
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>jard_n</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>fluorescente</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>.21a</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Empotrado</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
@@ -4702,41 +5310,52 @@
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
+      <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Modulos Risen, sistema Enphase, instaldo por Enlight.</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Generación de 10 módulos, solo se pudo ver la placa de uno y era de 335w. Asumiendo que todos son de la misma potencia la generación mínima teórica para el mes de octubre, con 16° de inclinación, orientación Sur-SurOeste, son 12.1 kwh al día o 726kWh bimestrales.</t>
+          <t>fluorescente</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0w</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+          <t>1.4a</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Luces de jardín con difusor</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Sistema fotovoltaico</t>
-        </is>
-      </c>
+      <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
@@ -4752,27 +5371,50 @@
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>tira_led</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.4a</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
@@ -4790,6 +5432,2184 @@
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Grande</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Grande</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>mabe</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6</v>
+      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>1.5a</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>lg</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>127_volts</t>
+        </is>
+      </c>
+      <c r="AC108" t="n">
+        <v>47</v>
+      </c>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>tp_link</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>multicontactos_de_6_puertos</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>17.6w</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Mac , Motorola y bose</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Computadora Mac ,teléfono inalámbrico y sufboofer</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.1w</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>4.1w</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Huawei</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Modem huawey</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cuarto de juegos</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>incandescente</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>.43a</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>E27</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cuarto de juegos</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>incandescente</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>.3a</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>E27</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>e26_27</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>incandescente</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>60w</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Tradicional incadensente</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>e26_27</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>incandescente</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>60w</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Incadensente tradicional</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>e26_27</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>fluorescente</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>14w</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>De exterior con difusor</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>e26_27</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>fluorescente</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>60w</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Tubo c4a8</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>145w</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>120_volts</t>
+        </is>
+      </c>
+      <c r="AC128" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>roku</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>smartbitt</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>infinitum</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>tp_link</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>direct_tv</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>5</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>multicontactos_de_8_puertos</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>rec_mara_principal</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>incandescente</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>300w</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Ver foto</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>a_la_mano</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>cambio_de_sockets</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>11w</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>11w</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Alhua</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>Sistema de timbre y seguridad interpone</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>rec_mara_principal</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ba_o</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>50w</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>5</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>con_escalera_mediana__1_5_m</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>rec_mara_principal</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>ba_o</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>hal_geno</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>40w</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Empotrable dicroico</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Grande</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.5w</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>1/2hp</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Legacy 696CD/B</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Motor de puerta eléctrica y sensor</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5w</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>5w</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Sensor n/a</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Sensor de puerta eléctrica</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
